--- a/Comments/变量含义一览.xlsx
+++ b/Comments/变量含义一览.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Mahjong\Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC3ADA4-EA05-4FFA-8EF1-A68F5727E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12855"/>
+    <workbookView xWindow="900" yWindow="2175" windowWidth="23880" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>Tile</t>
   </si>
@@ -292,19 +298,125 @@
   </si>
   <si>
     <t>断开</t>
+  </si>
+  <si>
+    <t>完整型判断Lv.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntegrityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整型判断Lv.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~指“不完整型”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeEx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀半不完整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半不完整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀面不完整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面子不完整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀头不完整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断听牌方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接判断（IntegrityJudge()）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去对+取坎张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取坎张（会成对出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历+去对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去对（去掉一个对子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历（3-9次）+与前后块连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半~与雀头~合并而成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀头~与面子~合并而成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,345 +425,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -788,353 +590,82 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1421,33 +952,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="2.75" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="2.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1465,20 +1000,20 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1"/>
@@ -1488,67 +1023,67 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="3" t="b">
+      <c r="I4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1557,36 +1092,36 @@
       <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="b">
+      <c r="I5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1595,34 +1130,34 @@
       <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1631,53 +1166,53 @@
       <c r="L6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="12">
         <v>3</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
       <c r="D8" s="1"/>
@@ -1685,37 +1220,37 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="16" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1"/>
@@ -1728,236 +1263,294 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="9">
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="9">
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="9">
         <v>16</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>3</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="9">
         <v>17</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9">
         <v>18</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="16">
         <v>5</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="9">
         <v>19</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="9">
         <v>6</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="I16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <v>20</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="16">
         <v>7</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>21</v>
       </c>
       <c r="D18" s="1"/>
@@ -1971,12 +1564,12 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9">
         <v>22</v>
       </c>
       <c r="D19" s="1"/>
@@ -1990,12 +1583,12 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="9">
         <v>23</v>
       </c>
       <c r="D20" s="1"/>
@@ -2009,12 +1602,12 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="9">
         <v>24</v>
       </c>
       <c r="D21" s="1"/>
@@ -2028,12 +1621,12 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <v>32</v>
       </c>
       <c r="D22" s="1"/>
@@ -2047,12 +1640,12 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="9">
         <v>33</v>
       </c>
       <c r="D23" s="1"/>
@@ -2066,12 +1659,12 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="9">
         <v>34</v>
       </c>
       <c r="D24" s="1"/>
@@ -2088,12 +1681,12 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="9">
         <v>35</v>
       </c>
       <c r="D25" s="1"/>
@@ -2110,12 +1703,12 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="9">
         <v>36</v>
       </c>
       <c r="D26" s="1"/>
@@ -2132,12 +1725,12 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="9">
         <v>37</v>
       </c>
       <c r="D27" s="1"/>
@@ -2154,12 +1747,12 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="9">
         <v>38</v>
       </c>
       <c r="D28" s="1"/>
@@ -2176,12 +1769,12 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="9">
         <v>39</v>
       </c>
       <c r="D29" s="1"/>
@@ -2198,12 +1791,12 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="16">
         <v>40</v>
       </c>
       <c r="D30" s="1"/>
@@ -2220,12 +1813,12 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="9">
         <v>48</v>
       </c>
       <c r="D31" s="1"/>
@@ -2242,12 +1835,12 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="9">
         <v>56</v>
       </c>
       <c r="D32" s="1"/>
@@ -2264,12 +1857,12 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="9">
         <v>64</v>
       </c>
       <c r="D33" s="1"/>
@@ -2286,12 +1879,12 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="9">
         <v>72</v>
       </c>
       <c r="D34" s="1"/>
@@ -2308,12 +1901,12 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="9">
         <v>80</v>
       </c>
       <c r="D35" s="1"/>
@@ -2330,12 +1923,12 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="9">
         <v>88</v>
       </c>
       <c r="D36" s="1"/>
@@ -2352,12 +1945,12 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="16">
         <v>96</v>
       </c>
       <c r="D37" s="1"/>
@@ -2374,7 +1967,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2392,86 +1985,86 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="3" t="s">
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="16">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Comments/变量含义一览.xlsx
+++ b/Comments/变量含义一览.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Mahjong\Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC3ADA4-EA05-4FFA-8EF1-A68F5727E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D821C-BF83-4E9B-A112-BA960615FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2175" windowWidth="23880" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2160" yWindow="1550" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +640,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,28 +961,28 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I10" sqref="I10:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="2.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="2.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.08984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1000,7 +1000,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1023,7 +1023,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1061,7 +1061,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>19</v>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="10" t="b">
+      <c r="I5" s="15" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1137,7 +1137,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
@@ -1156,8 +1156,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1173,7 +1173,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>33</v>
@@ -1182,18 +1182,18 @@
         <v>3</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -1220,22 +1220,22 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>42</v>
@@ -1263,7 +1263,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>46</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1" t="s">
         <v>95</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>49</v>
@@ -1335,12 +1335,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="17" t="s">
         <v>97</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1371,7 +1371,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1" t="s">
         <v>103</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>58</v>
@@ -1426,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="17" t="s">
         <v>101</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1443,7 +1443,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>61</v>
@@ -1452,18 +1452,18 @@
         <v>18</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>5</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1" t="s">
         <v>106</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -1496,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="17" t="s">
         <v>102</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1513,7 +1513,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>67</v>
@@ -1522,18 +1522,18 @@
         <v>20</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>7</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="1" t="s">
         <v>107</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
         <v>70</v>
@@ -1564,7 +1564,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>71</v>
@@ -1583,7 +1583,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>72</v>
@@ -1602,9 +1602,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="9">
@@ -1621,7 +1621,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -1640,7 +1640,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>75</v>
@@ -1659,7 +1659,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -1681,7 +1681,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>77</v>
@@ -1703,7 +1703,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>78</v>
@@ -1725,7 +1725,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>79</v>
@@ -1747,7 +1747,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>80</v>
@@ -1769,7 +1769,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>81</v>
@@ -1791,12 +1791,12 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="12">
         <v>40</v>
       </c>
       <c r="D30" s="1"/>
@@ -1813,7 +1813,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>83</v>
@@ -1835,7 +1835,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>20</v>
@@ -1857,7 +1857,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>27</v>
@@ -1879,7 +1879,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>34</v>
@@ -1901,7 +1901,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>84</v>
@@ -1923,7 +1923,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>85</v>
@@ -1945,12 +1945,12 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="12">
         <v>96</v>
       </c>
       <c r="D37" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1985,13 +1985,13 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="17" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>88</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>89</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>90</v>
       </c>
@@ -2015,11 +2015,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="12">
         <v>100</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,7 +2061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
